--- a/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoThang/11.2021/Số liệu thống kê DVTC tháng 11-2021.xlsx
+++ b/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoThang/11.2021/Số liệu thống kê DVTC tháng 11-2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>TOÀN CÔNG TY</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>Cầm cố</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>Tổng Dư nợ gốc</t>
@@ -128,11 +122,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;(#,##0.00)"/>
     <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
     <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="#,##0;(#,##0)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -269,7 +265,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -290,7 +286,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -654,22 +650,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="7">
-        <v>13334197</v>
+        <v>13308424</v>
       </c>
       <c r="D3" s="8">
-        <v>-13300000</v>
+        <v>-13300061</v>
       </c>
       <c r="E3" s="9">
-        <v>34197</v>
+        <v>8363</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="10"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9">
@@ -678,52 +674,56 @@
         <v>11</v>
       </c>
       <c r="C4" s="7">
-        <v>4559702553</v>
+        <v>1970150374</v>
       </c>
       <c r="D4" s="8">
         <v>-472986976</v>
       </c>
       <c r="E4" s="9">
-        <v>4086715577</v>
+        <v>1497163398</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="10"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="6"/>
       <c r="B5" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7">
-        <v>3571004037959</v>
+        <v>3040363253609</v>
       </c>
       <c r="D5" s="8">
-        <v>472070668406</v>
+        <v>264380297391</v>
       </c>
       <c r="E5" s="9">
-        <v>4043074706365</v>
+        <v>3304743551000</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="9">
+        <v>8746490974</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.2646647414245911</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="6"/>
-      <c r="B6" s="11" t="s">
-        <v>16</v>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="7">
-        <v>14105599587</v>
+        <v>13636658154</v>
       </c>
       <c r="D6" s="8">
-        <v>39953429805</v>
+        <v>19994317339</v>
       </c>
       <c r="E6" s="9">
-        <v>54059029392</v>
+        <v>33630975493</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="10"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9">
@@ -732,39 +732,37 @@
         <v>14</v>
       </c>
       <c r="C7" s="7">
-        <v>39332274730</v>
+        <v>29589361081</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="9">
-        <v>39332274730</v>
+        <v>29589361081</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6"/>
       <c r="B8" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="13">
-        <v>3629014949026</v>
+        <v>3085572731642</v>
       </c>
       <c r="D8" s="13">
-        <v>512510385187</v>
+        <v>284860901767</v>
       </c>
       <c r="E8" s="13">
-        <v>4140552760261</v>
+        <v>3369461059335</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -772,160 +770,210 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="17">
-        <v>11803</v>
+      <c r="C10" s="7">
+        <v>11434</v>
+      </c>
+      <c r="D10" s="17">
+        <v>334</v>
+      </c>
+      <c r="E10" s="9">
+        <v>11768</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="9">
+        <v>146</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1.240652617267165</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="17">
-        <v>123</v>
+        <v>21</v>
+      </c>
+      <c r="C11" s="7">
+        <v>121</v>
+      </c>
+      <c r="D11" s="17">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9">
+        <v>125</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="17">
-        <v>115</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="7">
+        <v>113</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>113</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="17">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7">
         <v>8</v>
       </c>
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>8</v>
+      </c>
       <c r="G13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="17">
-        <v>263</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="7">
+        <v>255</v>
+      </c>
+      <c r="D14" s="17">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9">
+        <v>265</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="17">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7">
+        <v>362</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
         <v>363</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="17">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7">
         <v>8</v>
       </c>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>8</v>
+      </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="17">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>10</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7">
+        <v>34</v>
+      </c>
+      <c r="D18" s="17">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9">
+        <v>36</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="7">
+        <v>121</v>
+      </c>
+      <c r="D19" s="17">
+        <v>4</v>
+      </c>
+      <c r="E19" s="9">
+        <v>125</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="17">
-        <v>35</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="19" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="7">
+        <v>113</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>113</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="E19" s="17">
-        <v>123</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="E20" s="17">
-        <v>115</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="19" t="s">
-        <v>34</v>
-      </c>
       <c r="B21" s="3"/>
-      <c r="E21" s="17">
-        <v>271</v>
+      <c r="C21" s="7">
+        <v>263</v>
+      </c>
+      <c r="D21" s="17">
+        <v>10</v>
+      </c>
+      <c r="E21" s="9">
+        <v>273</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoThang/11.2021/Số liệu thống kê DVTC tháng 11-2021.xlsx
+++ b/reporting_tool/trading_service/output/ThanhToanBuTru/BaoCaoThang/11.2021/Số liệu thống kê DVTC tháng 11-2021.xlsx
@@ -777,20 +777,20 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="7">
-        <v>11434</v>
+        <v>11516</v>
       </c>
       <c r="D10" s="17">
-        <v>334</v>
+        <v>269</v>
       </c>
       <c r="E10" s="9">
-        <v>11768</v>
+        <v>11785</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I10" s="10">
-        <v>1.240652617267165</v>
+        <v>1.247348324140857</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -801,13 +801,13 @@
         <v>21</v>
       </c>
       <c r="C11" s="7">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D11" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="9">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -820,10 +820,10 @@
         <v>113</v>
       </c>
       <c r="D12" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -851,13 +851,13 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D14" s="17">
         <v>10</v>
       </c>
       <c r="E14" s="9">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G14" s="3"/>
     </row>
@@ -869,13 +869,13 @@
         <v>26</v>
       </c>
       <c r="C15" s="7">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D15" s="17">
         <v>1</v>
       </c>
       <c r="E15" s="9">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -885,13 +885,13 @@
         <v>27</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="17">
         <v>0</v>
       </c>
       <c r="E16" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="3"/>
     </row>
@@ -917,13 +917,13 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="17">
         <v>2</v>
       </c>
       <c r="E18" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="3"/>
     </row>
@@ -933,13 +933,13 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="7">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D19" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" s="9">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="G19" s="3"/>
     </row>
@@ -952,10 +952,10 @@
         <v>113</v>
       </c>
       <c r="D20" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G20" s="3"/>
     </row>
@@ -965,13 +965,13 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="7">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D21" s="17">
         <v>10</v>
       </c>
       <c r="E21" s="9">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G21" s="3"/>
     </row>
